--- a/biology/Zoologie/Cryothenia/Cryothenia.xlsx
+++ b/biology/Zoologie/Cryothenia/Cryothenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryothenia est un genre de poissons marins de la famille des Nototheniidae originaires de l'océan Austral.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (4 mars 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (4 mars 2024) :
 Cryothenia amphitreta Cziko &amp; Cheng, 2006
 Cryothenia peninsulae Daniels, 1981</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cryothenia Daniels, 1981[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cryothenia Daniels, 1981,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Cryothenia, du mot grec ancien κρύος, krúos, « froid », et du suffixe adverbial grec –θεν, -then, « en provenance (de) », fait référence à l'océan Austral[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Cryothenia, du mot grec ancien κρύος, krúos, « froid », et du suffixe adverbial grec –θεν, -then, « en provenance (de) », fait référence à l'océan Austral.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Robert A. Daniels, « Cryothenia peninsulae, a New Genus and Species of Nototheniid Fish from the Antarctic Peninsula », Copeia, Société américaine des ichtyologistes et des herpétologistes, vol. 1981, no 3,‎ 26 août 1981, p. 558-562 (ISSN 0045-8511 et 1938-5110, OCLC 1565060, DOI 10.2307/1444559, JSTOR 1444559)</t>
         </is>
